--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3747.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3747.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.24850342594734</v>
+        <v>0.7877616882324219</v>
       </c>
       <c r="B1">
-        <v>2.550051969099752</v>
+        <v>1.334078669548035</v>
       </c>
       <c r="C1">
-        <v>4.669900990339248</v>
+        <v>4.284316062927246</v>
       </c>
       <c r="D1">
-        <v>3.113068421513337</v>
+        <v>1.584183812141418</v>
       </c>
       <c r="E1">
-        <v>1.153107136532778</v>
+        <v>0.7181151509284973</v>
       </c>
     </row>
   </sheetData>
